--- a/public/documents/format.xlsx
+++ b/public/documents/format.xlsx
@@ -47,7 +47,7 @@
     <t>Status SK Rektor</t>
   </si>
   <si>
-    <t>Status Pembayaran</t>
+    <t xml:space="preserve">Status Pembayaran </t>
   </si>
   <si>
     <t>Tgl Ajuan LoA</t>
@@ -87,7 +87,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6A0DAD"/>
+        <fgColor rgb="FF5b3f86"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
